--- a/src-tauri/resources/userTemplate.xlsx
+++ b/src-tauri/resources/userTemplate.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yiji/Desktop/Src/Workspace/Rust/lottery-app/src-tauri/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78866A42-C3E1-6A4C-9213-FF633C2699F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D40ED90B-637D-5C46-B90F-77B29D1CE43A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5180" yWindow="1800" windowWidth="28040" windowHeight="17440" xr2:uid="{78711FDC-D263-CF42-99B5-EEB6E7C958BE}"/>
   </bookViews>
@@ -36,18 +36,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>num</t>
   </si>
   <si>
     <t>name</t>
-  </si>
-  <si>
-    <t>remark1</t>
-  </si>
-  <si>
-    <t>remark2</t>
   </si>
   <si>
     <t>img</t>
@@ -57,6 +51,9 @@
   </si>
   <si>
     <t>YOU</t>
+  </si>
+  <si>
+    <t>remark</t>
   </si>
 </sst>
 </file>
@@ -115,13 +112,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>165101</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>182632</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>2565400</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>2438938</xdr:rowOff>
@@ -463,19 +460,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D8B9487-8276-8248-ABF2-B4E2003FD414}">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="4" width="20.83203125" customWidth="1"/>
-    <col min="5" max="5" width="36" customWidth="1"/>
+    <col min="1" max="3" width="20.83203125" customWidth="1"/>
+    <col min="4" max="4" width="36" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -483,27 +480,21 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
     </row>
-    <row r="2" spans="1:5" ht="204" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" ht="204" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>9527</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/src-tauri/resources/userTemplate.xlsx
+++ b/src-tauri/resources/userTemplate.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yiji/Desktop/Src/Workspace/Rust/lottery-app/src-tauri/resources/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jimmy/data/app/lottery-app/src-tauri/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D40ED90B-637D-5C46-B90F-77B29D1CE43A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F42FB55-0F54-D242-96FB-48DB789E8AC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5180" yWindow="1800" windowWidth="28040" windowHeight="17440" xr2:uid="{78711FDC-D263-CF42-99B5-EEB6E7C958BE}"/>
+    <workbookView xWindow="-38400" yWindow="1200" windowWidth="38400" windowHeight="19400" xr2:uid="{78711FDC-D263-CF42-99B5-EEB6E7C958BE}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="6">
   <si>
     <t>num</t>
   </si>
@@ -151,6 +151,4956 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="6515101" y="385832"/>
+          <a:ext cx="2400299" cy="2256306"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>165101</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>182632</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2565400</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>2438938</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4A5DF87E-0B0D-6C4D-A60A-3714AFAE1B8E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4927601" y="385832"/>
+          <a:ext cx="2400299" cy="2256306"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2400299</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>2256306</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{17B8F391-FF2A-704F-B388-DB0B2CC01AE4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4762500" y="5384800"/>
+          <a:ext cx="2400299" cy="2256306"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2400299</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>2256306</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2F14590B-44C1-6C44-83C0-DCB1F87B485D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4762500" y="7975600"/>
+          <a:ext cx="2400299" cy="2256306"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2400299</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>2256306</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{49D0E745-3521-E740-ADE5-BB1C5013AFB0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4762500" y="10566400"/>
+          <a:ext cx="2400299" cy="2256306"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2400299</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>2256306</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{15A5BF65-5A1A-6E4C-88D7-5B9F1034AE29}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4762500" y="13157200"/>
+          <a:ext cx="2400299" cy="2256306"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2400299</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>2256306</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3EC0AB70-545A-4D46-A387-0B34A182008D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4762500" y="15748000"/>
+          <a:ext cx="2400299" cy="2256306"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2400299</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>2256306</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Picture 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0ECA5D7F-2233-CA47-B6DC-819A95E854BB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4762500" y="18338800"/>
+          <a:ext cx="2400299" cy="2256306"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2400299</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>2256306</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Picture 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C19BB831-A761-0B4E-B619-3963786CC3AA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4762500" y="20929600"/>
+          <a:ext cx="2400299" cy="2256306"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2400299</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>2256306</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="Picture 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4620FF87-548D-7B44-9705-721E41590D2C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4762500" y="23520400"/>
+          <a:ext cx="2400299" cy="2256306"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2400299</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>2256306</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="Picture 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0ED97FE6-EC39-9B4F-B5B1-9C51D6C361A1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4762500" y="26111200"/>
+          <a:ext cx="2400299" cy="2256306"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2400299</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>2256306</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="Picture 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B6F03AC7-A168-D247-B31E-73DB602A9D35}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4762500" y="28702000"/>
+          <a:ext cx="2400299" cy="2256306"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2400299</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>2256306</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="Picture 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{61A501B9-9812-A54D-A5E3-FFF542971527}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4762500" y="31292800"/>
+          <a:ext cx="2400299" cy="2256306"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2400299</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>2256306</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="Picture 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E9A17163-EBC1-C94F-9963-36305865A990}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4762500" y="33883600"/>
+          <a:ext cx="2400299" cy="2256306"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2400299</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>2256306</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="Picture 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CF08461A-22D9-704E-9924-7B4FBF1BD50F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4762500" y="36474400"/>
+          <a:ext cx="2400299" cy="2256306"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2400299</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>2256306</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="17" name="Picture 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9C46CA32-C536-2047-BB16-34E4B2E6BB50}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4762500" y="39065200"/>
+          <a:ext cx="2400299" cy="2256306"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2400299</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>2256306</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="18" name="Picture 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F4B2AC39-F7BC-E243-9F23-387C9718230D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4762500" y="41656000"/>
+          <a:ext cx="2400299" cy="2256306"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2400299</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>2256306</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="19" name="Picture 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2F346BA1-F41D-DA43-B1A2-C0292E2ACB24}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4762500" y="44246800"/>
+          <a:ext cx="2400299" cy="2256306"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2400299</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>2256306</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="20" name="Picture 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{07707687-5E84-A84B-826A-2A1E72C86FC4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4762500" y="46837600"/>
+          <a:ext cx="2400299" cy="2256306"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2400299</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>2256306</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="21" name="Picture 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9A2D1674-D103-364F-93AF-A1FD84B5DA49}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4762500" y="49428400"/>
+          <a:ext cx="2400299" cy="2256306"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2400299</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>2256306</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="22" name="Picture 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1B241B11-252A-7544-AEBC-0C2C084597B3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4762500" y="52019200"/>
+          <a:ext cx="2400299" cy="2256306"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2400299</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>2256306</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="23" name="Picture 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E2AB5EDF-4403-4D45-BDEE-012FE6889435}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4762500" y="54610000"/>
+          <a:ext cx="2400299" cy="2256306"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2400299</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>2256306</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="24" name="Picture 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AFD805D9-7D48-8846-A337-34552F5C4713}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4762500" y="57200800"/>
+          <a:ext cx="2400299" cy="2256306"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2400299</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>2256306</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="25" name="Picture 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3296E054-3EE9-A84F-B5F6-7073F4B9C36E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4762500" y="59791600"/>
+          <a:ext cx="2400299" cy="2256306"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2400299</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>2256306</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="26" name="Picture 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{29036A76-E3B1-A74E-A6A7-687524968E24}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4762500" y="62382400"/>
+          <a:ext cx="2400299" cy="2256306"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2400299</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>2256306</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="27" name="Picture 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2AF3FDC4-6912-CA47-BD30-EAECEEA9CA98}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4762500" y="64973200"/>
+          <a:ext cx="2400299" cy="2256306"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2400299</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>2256306</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="28" name="Picture 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4B7AE074-E7F2-464E-A729-26DE1E6C0719}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4762500" y="67564000"/>
+          <a:ext cx="2400299" cy="2256306"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2400299</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>2256306</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="29" name="Picture 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AA7310AF-33E2-6545-9566-6F1BDD9F2CD3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4762500" y="70154800"/>
+          <a:ext cx="2400299" cy="2256306"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2400299</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>2256306</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="30" name="Picture 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5ACD5A1A-3262-2D4B-9249-FB58648FDCC3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4776716" y="72920746"/>
+          <a:ext cx="2400299" cy="2256306"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2400299</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>2256306</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="31" name="Picture 30">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{95F350DB-7E3C-4C48-9986-80AF1EDE3227}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4776716" y="75517612"/>
+          <a:ext cx="2400299" cy="2256306"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2400299</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>2256306</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="32" name="Picture 31">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{759F57B8-BD4A-C44B-92EF-99937CBCD26E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4776716" y="78114478"/>
+          <a:ext cx="2400299" cy="2256306"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2400299</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>2256306</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="33" name="Picture 32">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{84B3FA05-5FE9-D44C-84D7-F7EFAE2BF28F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4776716" y="78114478"/>
+          <a:ext cx="2400299" cy="2256306"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2400299</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>2256306</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="34" name="Picture 33">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{869FAF3B-F633-AE42-8DD0-7CD69B2B8BE1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4776716" y="83308209"/>
+          <a:ext cx="2400299" cy="2256306"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2400299</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>2256306</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="35" name="Picture 34">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A265E7FC-A6F9-3D4F-80DA-44ADD891A313}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4776716" y="85905075"/>
+          <a:ext cx="2400299" cy="2256306"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2400299</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>2256306</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="36" name="Picture 35">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9492B365-0DB5-4146-9549-36C693A0A40D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4776716" y="88501940"/>
+          <a:ext cx="2400299" cy="2256306"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2400299</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>2256306</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="37" name="Picture 36">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{052B6CF6-26EE-6249-BABC-DA3C57CED67D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4776716" y="91098806"/>
+          <a:ext cx="2400299" cy="2256306"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2400299</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>2256306</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="38" name="Picture 37">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B1C1FDF-15F7-D54B-A1F2-35E1C5464854}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4776716" y="93695672"/>
+          <a:ext cx="2400299" cy="2256306"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2400299</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>2256306</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="39" name="Picture 38">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0476A3B-7B55-0E44-A0B5-62ADE258482C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4776716" y="96292537"/>
+          <a:ext cx="2400299" cy="2256306"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2400299</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>2256306</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="40" name="Picture 39">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{02B5AACB-01B7-E040-8188-A3EBEF02E59B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4776716" y="98889403"/>
+          <a:ext cx="2400299" cy="2256306"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2400299</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>2256306</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="41" name="Picture 40">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{02CD35B4-4D0F-024D-B7F3-72F79F1708BE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4776716" y="101486269"/>
+          <a:ext cx="2400299" cy="2256306"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2400299</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>2256306</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="42" name="Picture 41">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{223ED4F1-ACEA-5C4A-A4DB-28DFC2932E7D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4776716" y="104083134"/>
+          <a:ext cx="2400299" cy="2256306"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2400299</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>2256306</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="43" name="Picture 42">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1C1DC4DA-7683-A04E-B52C-D9BAFAFC06A5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4776716" y="106680000"/>
+          <a:ext cx="2400299" cy="2256306"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2400299</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>2256306</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="44" name="Picture 43">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8DBBB4AC-5075-8C4F-B192-EB02C3EB2E7E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4776716" y="109276866"/>
+          <a:ext cx="2400299" cy="2256306"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2400299</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>2256306</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="45" name="Picture 44">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E0C5A756-E106-6B4A-B25C-5C5DEBD940CA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4776716" y="111873731"/>
+          <a:ext cx="2400299" cy="2256306"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2400299</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>2256306</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="46" name="Picture 45">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{55DE1AC8-AF95-394F-8415-D71123AFA22C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4776716" y="114470597"/>
+          <a:ext cx="2400299" cy="2256306"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2400299</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>2256306</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="47" name="Picture 46">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A21E483-7FBA-FC4A-830F-2F0C99DF53A3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4776716" y="117067463"/>
+          <a:ext cx="2400299" cy="2256306"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2400299</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>2256306</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="48" name="Picture 47">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5BE6BF78-5EE1-C74D-AA43-0B1220094451}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4776716" y="119664328"/>
+          <a:ext cx="2400299" cy="2256306"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2400299</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>2256306</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="49" name="Picture 48">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6E82C5BF-07AC-D841-B212-1AB440F135AD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4776716" y="122261194"/>
+          <a:ext cx="2400299" cy="2256306"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2400299</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>2256306</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="50" name="Picture 49">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{87026DC4-7C54-8645-9CEF-50B9A89E0603}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4776716" y="124858060"/>
+          <a:ext cx="2400299" cy="2256306"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2400299</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>2256306</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="51" name="Picture 50">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4BCC88CF-3283-F74A-AA95-CA8AE082F2C4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4776716" y="127454925"/>
+          <a:ext cx="2400299" cy="2256306"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2400299</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>2256306</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="52" name="Picture 51">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{70618128-664C-4947-A686-B22583E933A4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4776716" y="130051791"/>
+          <a:ext cx="2400299" cy="2256306"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2400299</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>2256306</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="53" name="Picture 52">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{49370238-5081-204A-86DD-2CC371700DFC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4776716" y="132648657"/>
+          <a:ext cx="2400299" cy="2256306"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2400299</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>2256306</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="54" name="Picture 53">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5C24775E-D79D-8D4C-96E4-3FE184FDEA37}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4776716" y="135245522"/>
+          <a:ext cx="2400299" cy="2256306"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2400299</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>2256306</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="55" name="Picture 54">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DEDC040F-334E-214B-80D0-1B78233B3895}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4776716" y="137842388"/>
+          <a:ext cx="2400299" cy="2256306"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2400299</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>2256306</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="56" name="Picture 55">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B0514094-916A-DA45-82BA-89FBB9F8AC83}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4776716" y="140439254"/>
+          <a:ext cx="2400299" cy="2256306"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2400299</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>2256306</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="57" name="Picture 56">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9DEA1981-6F74-5D49-94CD-8B2B0ECEEC4D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4776716" y="143036119"/>
+          <a:ext cx="2400299" cy="2256306"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2400299</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>2256306</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="58" name="Picture 57">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9A72F3CA-FF92-9C4D-957C-822575C81D94}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4776716" y="145632985"/>
+          <a:ext cx="2400299" cy="2256306"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2400299</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>2256306</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="59" name="Picture 58">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5CB4BA2C-7621-054C-95AC-BDE66DEE722F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4776716" y="148229851"/>
+          <a:ext cx="2400299" cy="2256306"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2400299</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>2256306</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="60" name="Picture 59">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4AC618D4-ECEC-FB4D-A649-B7DC327EB012}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4776716" y="150826716"/>
+          <a:ext cx="2400299" cy="2256306"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2400299</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>2256306</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="61" name="Picture 60">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32481E5F-D04A-7749-820C-AB45BBC17B74}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4776716" y="153423582"/>
+          <a:ext cx="2400299" cy="2256306"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2400299</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>2256306</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="62" name="Picture 61">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{87DD95A3-5755-B04D-8510-247061A3B8B0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4776716" y="156020448"/>
+          <a:ext cx="2400299" cy="2256306"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2400299</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>2256306</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="63" name="Picture 62">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B0A22099-56C6-4040-A214-FD89356E72F8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4776716" y="158617313"/>
+          <a:ext cx="2400299" cy="2256306"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2400299</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>2256306</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="64" name="Picture 63">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{925B774C-5943-9140-B032-FD0D55B3F5FF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4776716" y="161214179"/>
+          <a:ext cx="2400299" cy="2256306"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2400299</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>2256306</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="65" name="Picture 64">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32C845FC-67F0-BE4D-87DD-438E1FF8C14F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4776716" y="163811045"/>
+          <a:ext cx="2400299" cy="2256306"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2400299</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>2256306</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="66" name="Picture 65">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B25CD9EC-CCE3-6A49-9E76-D34E07CCB0E7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4776716" y="166407910"/>
+          <a:ext cx="2400299" cy="2256306"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2400299</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>2256306</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="67" name="Picture 66">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{75F5B9B3-D048-7246-B070-42252BBE316C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4776716" y="169004776"/>
+          <a:ext cx="2400299" cy="2256306"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2400299</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>2256306</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="68" name="Picture 67">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{413BF206-2F68-FD47-8D5E-77B3FD3F9EA7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4776716" y="171601642"/>
+          <a:ext cx="2400299" cy="2256306"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2400299</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>2256306</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="69" name="Picture 68">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CE8A736E-068A-1340-8A48-A59B186CE84C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4776716" y="174198507"/>
+          <a:ext cx="2400299" cy="2256306"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2400299</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>2256306</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="70" name="Picture 69">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{50A08758-2048-7641-A1D8-F1072BD12C94}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4776716" y="176795373"/>
+          <a:ext cx="2400299" cy="2256306"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2400299</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>2256306</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="71" name="Picture 70">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{030CB749-F959-F84F-9BD9-3F414267E6DD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4776716" y="179392239"/>
+          <a:ext cx="2400299" cy="2256306"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2400299</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>2256306</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="72" name="Picture 71">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A042EE4D-4100-6E46-B017-47FA07A422F2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4776716" y="181989104"/>
+          <a:ext cx="2400299" cy="2256306"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2400299</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>2256306</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="73" name="Picture 72">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F0F2CE09-8E92-AE44-A50B-696C05D8FB81}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4776716" y="184585970"/>
+          <a:ext cx="2400299" cy="2256306"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2400299</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>2256306</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="74" name="Picture 73">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C1AD64DB-5B0B-8441-ADEE-064FC9C82733}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4776716" y="187182836"/>
+          <a:ext cx="2400299" cy="2256306"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2400299</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>2256306</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="75" name="Picture 74">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{55A9DC4D-5A08-DF41-A540-DA02C278E7E5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4776716" y="189779701"/>
+          <a:ext cx="2400299" cy="2256306"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2400299</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>2256306</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="76" name="Picture 75">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{06E7CB8C-5301-2741-B97D-6DCDD2735792}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4776716" y="192376567"/>
+          <a:ext cx="2400299" cy="2256306"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2400299</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>2256306</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="77" name="Picture 76">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F121C87F-74F7-4241-A3EA-DC50D36B094B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4776716" y="194973433"/>
+          <a:ext cx="2400299" cy="2256306"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2400299</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>2256306</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="78" name="Picture 77">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66DAC0AB-549B-654A-953D-82F64AF00E8D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4776716" y="197570299"/>
+          <a:ext cx="2400299" cy="2256306"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2400299</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>2256306</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="79" name="Picture 78">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{901E17F4-56AE-AE4C-8B20-5E984DF866CC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4776716" y="200167164"/>
+          <a:ext cx="2400299" cy="2256306"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2400299</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>2256306</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="80" name="Picture 79">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{99F47774-66B0-A54C-B35D-5FC01E4300D1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4776716" y="202764030"/>
+          <a:ext cx="2400299" cy="2256306"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2400299</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>2256306</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="81" name="Picture 80">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C4535638-93D2-1C4A-92CC-CED025FA1523}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4776716" y="205360896"/>
+          <a:ext cx="2400299" cy="2256306"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2400299</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>2256306</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="82" name="Picture 81">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0571A365-FA10-C74D-AA46-DED5DF5B5CF0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4776716" y="207957761"/>
+          <a:ext cx="2400299" cy="2256306"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2400299</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>2256306</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="83" name="Picture 82">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2B20DEF5-B228-9145-A4EE-E8AD3880DB24}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4776716" y="210554627"/>
+          <a:ext cx="2400299" cy="2256306"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2400299</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>2256306</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="84" name="Picture 83">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{13C87C52-CDF0-FB43-8F35-6A29998BB335}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4776716" y="213151493"/>
+          <a:ext cx="2400299" cy="2256306"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2400299</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>2256306</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="85" name="Picture 84">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32E3680D-405D-FF46-AC98-BC767FA7D6DB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4776716" y="215748358"/>
+          <a:ext cx="2400299" cy="2256306"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2400299</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>2256306</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="86" name="Picture 85">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A8B3321-9D86-B940-86E9-5097A708FC90}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4776716" y="218345224"/>
+          <a:ext cx="2400299" cy="2256306"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2400299</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>2256306</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="87" name="Picture 86">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6214905F-2FAC-D94C-9E71-EE741120D00A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4776716" y="220942090"/>
+          <a:ext cx="2400299" cy="2256306"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2400299</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>2256306</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="88" name="Picture 87">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5475D76D-E94E-C346-BA41-8EBDF6070121}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4776716" y="223538955"/>
+          <a:ext cx="2400299" cy="2256306"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2400299</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>2256306</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="89" name="Picture 88">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A7467DCA-3439-FC41-85A9-F84BC7FEF3E0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4776716" y="226135821"/>
+          <a:ext cx="2400299" cy="2256306"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2400299</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>2256306</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="90" name="Picture 89">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D60531B9-8FF6-3544-A23B-6D1E3754B4AB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4776716" y="228732687"/>
+          <a:ext cx="2400299" cy="2256306"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2400299</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>2256306</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="91" name="Picture 90">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{679DC1D9-D465-3842-9459-AFAC5B63444D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4776716" y="231329552"/>
+          <a:ext cx="2400299" cy="2256306"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2400299</xdr:colOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>2256306</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="92" name="Picture 91">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{47A4F06F-788C-2349-87B8-D738913BDEED}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4776716" y="233926418"/>
+          <a:ext cx="2400299" cy="2256306"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2400299</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>2256306</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="93" name="Picture 92">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{608292E4-3959-8D4B-8D46-92EBE153446E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4776716" y="236523284"/>
+          <a:ext cx="2400299" cy="2256306"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2400299</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>2256306</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="94" name="Picture 93">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7C22AE7D-E09A-064B-A5A0-03D2AD5BE923}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4776716" y="239120149"/>
+          <a:ext cx="2400299" cy="2256306"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>94</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2400299</xdr:colOff>
+      <xdr:row>94</xdr:row>
+      <xdr:rowOff>2256306</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="95" name="Picture 94">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E336AFDC-79D5-8844-88D6-8DAB09406610}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4776716" y="241717015"/>
+          <a:ext cx="2400299" cy="2256306"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>95</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2400299</xdr:colOff>
+      <xdr:row>95</xdr:row>
+      <xdr:rowOff>2256306</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="96" name="Picture 95">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C11CFA3C-0904-2142-B611-C90130E0CD39}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4776716" y="244313881"/>
+          <a:ext cx="2400299" cy="2256306"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>96</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2400299</xdr:colOff>
+      <xdr:row>96</xdr:row>
+      <xdr:rowOff>2256306</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="97" name="Picture 96">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{13D3EDFC-5089-B147-902A-C3319001E63C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4776716" y="246910746"/>
+          <a:ext cx="2400299" cy="2256306"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>97</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2400299</xdr:colOff>
+      <xdr:row>97</xdr:row>
+      <xdr:rowOff>2256306</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="98" name="Picture 97">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EF635999-EC07-8D40-94BD-95D56D77D431}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4776716" y="249507612"/>
+          <a:ext cx="2400299" cy="2256306"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>98</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2400299</xdr:colOff>
+      <xdr:row>98</xdr:row>
+      <xdr:rowOff>2256306</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="99" name="Picture 98">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1BC871E5-9A62-4348-938B-56C0E418941D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4776716" y="252104478"/>
+          <a:ext cx="2400299" cy="2256306"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>99</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2400299</xdr:colOff>
+      <xdr:row>99</xdr:row>
+      <xdr:rowOff>2256306</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="100" name="Picture 99">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C7A09F50-9BCC-2047-8AE0-0563EDE6B372}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4776716" y="254701343"/>
+          <a:ext cx="2400299" cy="2256306"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>100</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2400299</xdr:colOff>
+      <xdr:row>100</xdr:row>
+      <xdr:rowOff>2256306</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="101" name="Picture 100">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0E40E885-0128-8A4E-A9FC-E53A4CE19E40}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4776716" y="257298209"/>
           <a:ext cx="2400299" cy="2256306"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -460,10 +5410,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D8B9487-8276-8248-ABF2-B4E2003FD414}">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" topLeftCell="A97" zoomScale="67" workbookViewId="0">
+      <selection activeCell="C97" sqref="C97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -497,6 +5447,1095 @@
         <v>4</v>
       </c>
     </row>
+    <row r="3" spans="1:4" ht="204" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>9527</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="204" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>9527</v>
+      </c>
+      <c r="B4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="204" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>9527</v>
+      </c>
+      <c r="B5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="204" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>9527</v>
+      </c>
+      <c r="B6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="204" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>9527</v>
+      </c>
+      <c r="B7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="204" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>9527</v>
+      </c>
+      <c r="B8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="204" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>9527</v>
+      </c>
+      <c r="B9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="204" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>9527</v>
+      </c>
+      <c r="B10" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="204" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>9527</v>
+      </c>
+      <c r="B11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="204" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>9527</v>
+      </c>
+      <c r="B12" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="204" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>9527</v>
+      </c>
+      <c r="B13" t="s">
+        <v>3</v>
+      </c>
+      <c r="C13" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="204" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>9527</v>
+      </c>
+      <c r="B14" t="s">
+        <v>3</v>
+      </c>
+      <c r="C14" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="204" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>9527</v>
+      </c>
+      <c r="B15" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="204" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>9527</v>
+      </c>
+      <c r="B16" t="s">
+        <v>3</v>
+      </c>
+      <c r="C16" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="204" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>9527</v>
+      </c>
+      <c r="B17" t="s">
+        <v>3</v>
+      </c>
+      <c r="C17" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="204" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>9527</v>
+      </c>
+      <c r="B18" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="204" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>9527</v>
+      </c>
+      <c r="B19" t="s">
+        <v>3</v>
+      </c>
+      <c r="C19" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="204" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>9527</v>
+      </c>
+      <c r="B20" t="s">
+        <v>3</v>
+      </c>
+      <c r="C20" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="204" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>9527</v>
+      </c>
+      <c r="B21" t="s">
+        <v>3</v>
+      </c>
+      <c r="C21" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="204" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>9527</v>
+      </c>
+      <c r="B22" t="s">
+        <v>3</v>
+      </c>
+      <c r="C22" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="204" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>9527</v>
+      </c>
+      <c r="B23" t="s">
+        <v>3</v>
+      </c>
+      <c r="C23" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="204" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>9527</v>
+      </c>
+      <c r="B24" t="s">
+        <v>3</v>
+      </c>
+      <c r="C24" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="204" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>9527</v>
+      </c>
+      <c r="B25" t="s">
+        <v>3</v>
+      </c>
+      <c r="C25" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="204" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>9527</v>
+      </c>
+      <c r="B26" t="s">
+        <v>3</v>
+      </c>
+      <c r="C26" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="204" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>9527</v>
+      </c>
+      <c r="B27" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="204" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>9527</v>
+      </c>
+      <c r="B28" t="s">
+        <v>3</v>
+      </c>
+      <c r="C28" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="204" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>9527</v>
+      </c>
+      <c r="B29" t="s">
+        <v>3</v>
+      </c>
+      <c r="C29" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="204" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>9527</v>
+      </c>
+      <c r="B30" t="s">
+        <v>3</v>
+      </c>
+      <c r="C30" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="204" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>9527</v>
+      </c>
+      <c r="B31" t="s">
+        <v>3</v>
+      </c>
+      <c r="C31" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="204" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>9527</v>
+      </c>
+      <c r="B32" t="s">
+        <v>3</v>
+      </c>
+      <c r="C32" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="204" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>9527</v>
+      </c>
+      <c r="B33" t="s">
+        <v>3</v>
+      </c>
+      <c r="C33" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="204" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>9527</v>
+      </c>
+      <c r="B34" t="s">
+        <v>3</v>
+      </c>
+      <c r="C34" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="204" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>9527</v>
+      </c>
+      <c r="B35" t="s">
+        <v>3</v>
+      </c>
+      <c r="C35" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="204" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>9527</v>
+      </c>
+      <c r="B36" t="s">
+        <v>3</v>
+      </c>
+      <c r="C36" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="204" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>9527</v>
+      </c>
+      <c r="B37" t="s">
+        <v>3</v>
+      </c>
+      <c r="C37" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="204" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>9527</v>
+      </c>
+      <c r="B38" t="s">
+        <v>3</v>
+      </c>
+      <c r="C38" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="204" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>9527</v>
+      </c>
+      <c r="B39" t="s">
+        <v>3</v>
+      </c>
+      <c r="C39" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="204" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>9527</v>
+      </c>
+      <c r="B40" t="s">
+        <v>3</v>
+      </c>
+      <c r="C40" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="204" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>9527</v>
+      </c>
+      <c r="B41" t="s">
+        <v>3</v>
+      </c>
+      <c r="C41" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="204" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>9527</v>
+      </c>
+      <c r="B42" t="s">
+        <v>3</v>
+      </c>
+      <c r="C42" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="204" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>9527</v>
+      </c>
+      <c r="B43" t="s">
+        <v>3</v>
+      </c>
+      <c r="C43" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="204" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>9527</v>
+      </c>
+      <c r="B44" t="s">
+        <v>3</v>
+      </c>
+      <c r="C44" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="204" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>9527</v>
+      </c>
+      <c r="B45" t="s">
+        <v>3</v>
+      </c>
+      <c r="C45" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" ht="204" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>9527</v>
+      </c>
+      <c r="B46" t="s">
+        <v>3</v>
+      </c>
+      <c r="C46" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" ht="204" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>9527</v>
+      </c>
+      <c r="B47" t="s">
+        <v>3</v>
+      </c>
+      <c r="C47" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" ht="204" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>9527</v>
+      </c>
+      <c r="B48" t="s">
+        <v>3</v>
+      </c>
+      <c r="C48" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" ht="204" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>9527</v>
+      </c>
+      <c r="B49" t="s">
+        <v>3</v>
+      </c>
+      <c r="C49" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" ht="204" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <v>9527</v>
+      </c>
+      <c r="B50" t="s">
+        <v>3</v>
+      </c>
+      <c r="C50" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" ht="204" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A51">
+        <v>9527</v>
+      </c>
+      <c r="B51" t="s">
+        <v>3</v>
+      </c>
+      <c r="C51" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" ht="204" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A52">
+        <v>9527</v>
+      </c>
+      <c r="B52" t="s">
+        <v>3</v>
+      </c>
+      <c r="C52" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" ht="204" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A53">
+        <v>9527</v>
+      </c>
+      <c r="B53" t="s">
+        <v>3</v>
+      </c>
+      <c r="C53" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" ht="204" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A54">
+        <v>9527</v>
+      </c>
+      <c r="B54" t="s">
+        <v>3</v>
+      </c>
+      <c r="C54" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" ht="204" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A55">
+        <v>9527</v>
+      </c>
+      <c r="B55" t="s">
+        <v>3</v>
+      </c>
+      <c r="C55" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" ht="204" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A56">
+        <v>9527</v>
+      </c>
+      <c r="B56" t="s">
+        <v>3</v>
+      </c>
+      <c r="C56" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" ht="204" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A57">
+        <v>9527</v>
+      </c>
+      <c r="B57" t="s">
+        <v>3</v>
+      </c>
+      <c r="C57" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" ht="204" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A58">
+        <v>9527</v>
+      </c>
+      <c r="B58" t="s">
+        <v>3</v>
+      </c>
+      <c r="C58" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" ht="204" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A59">
+        <v>9527</v>
+      </c>
+      <c r="B59" t="s">
+        <v>3</v>
+      </c>
+      <c r="C59" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" ht="204" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A60">
+        <v>9527</v>
+      </c>
+      <c r="B60" t="s">
+        <v>3</v>
+      </c>
+      <c r="C60" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" ht="204" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A61">
+        <v>9527</v>
+      </c>
+      <c r="B61" t="s">
+        <v>3</v>
+      </c>
+      <c r="C61" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" ht="204" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A62">
+        <v>9527</v>
+      </c>
+      <c r="B62" t="s">
+        <v>3</v>
+      </c>
+      <c r="C62" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" ht="204" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A63">
+        <v>9527</v>
+      </c>
+      <c r="B63" t="s">
+        <v>3</v>
+      </c>
+      <c r="C63" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" ht="204" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A64">
+        <v>9527</v>
+      </c>
+      <c r="B64" t="s">
+        <v>3</v>
+      </c>
+      <c r="C64" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" ht="204" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A65">
+        <v>9527</v>
+      </c>
+      <c r="B65" t="s">
+        <v>3</v>
+      </c>
+      <c r="C65" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" ht="204" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A66">
+        <v>9527</v>
+      </c>
+      <c r="B66" t="s">
+        <v>3</v>
+      </c>
+      <c r="C66" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" ht="204" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A67">
+        <v>9527</v>
+      </c>
+      <c r="B67" t="s">
+        <v>3</v>
+      </c>
+      <c r="C67" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" ht="204" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A68">
+        <v>9527</v>
+      </c>
+      <c r="B68" t="s">
+        <v>3</v>
+      </c>
+      <c r="C68" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" ht="204" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A69">
+        <v>9527</v>
+      </c>
+      <c r="B69" t="s">
+        <v>3</v>
+      </c>
+      <c r="C69" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" ht="204" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A70">
+        <v>9527</v>
+      </c>
+      <c r="B70" t="s">
+        <v>3</v>
+      </c>
+      <c r="C70" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" ht="204" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A71">
+        <v>9527</v>
+      </c>
+      <c r="B71" t="s">
+        <v>3</v>
+      </c>
+      <c r="C71" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" ht="204" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A72">
+        <v>9527</v>
+      </c>
+      <c r="B72" t="s">
+        <v>3</v>
+      </c>
+      <c r="C72" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" ht="204" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A73">
+        <v>9527</v>
+      </c>
+      <c r="B73" t="s">
+        <v>3</v>
+      </c>
+      <c r="C73" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" ht="204" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A74">
+        <v>9527</v>
+      </c>
+      <c r="B74" t="s">
+        <v>3</v>
+      </c>
+      <c r="C74" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" ht="204" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A75">
+        <v>9527</v>
+      </c>
+      <c r="B75" t="s">
+        <v>3</v>
+      </c>
+      <c r="C75" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" ht="204" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A76">
+        <v>9527</v>
+      </c>
+      <c r="B76" t="s">
+        <v>3</v>
+      </c>
+      <c r="C76" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" ht="204" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A77">
+        <v>9527</v>
+      </c>
+      <c r="B77" t="s">
+        <v>3</v>
+      </c>
+      <c r="C77" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" ht="204" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A78">
+        <v>9527</v>
+      </c>
+      <c r="B78" t="s">
+        <v>3</v>
+      </c>
+      <c r="C78" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" ht="204" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A79">
+        <v>9527</v>
+      </c>
+      <c r="B79" t="s">
+        <v>3</v>
+      </c>
+      <c r="C79" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" ht="204" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A80">
+        <v>9527</v>
+      </c>
+      <c r="B80" t="s">
+        <v>3</v>
+      </c>
+      <c r="C80" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" ht="204" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A81">
+        <v>9527</v>
+      </c>
+      <c r="B81" t="s">
+        <v>3</v>
+      </c>
+      <c r="C81" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" ht="204" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A82">
+        <v>9527</v>
+      </c>
+      <c r="B82" t="s">
+        <v>3</v>
+      </c>
+      <c r="C82" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" ht="204" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A83">
+        <v>9527</v>
+      </c>
+      <c r="B83" t="s">
+        <v>3</v>
+      </c>
+      <c r="C83" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" ht="204" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A84">
+        <v>9527</v>
+      </c>
+      <c r="B84" t="s">
+        <v>3</v>
+      </c>
+      <c r="C84" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" ht="204" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A85">
+        <v>9527</v>
+      </c>
+      <c r="B85" t="s">
+        <v>3</v>
+      </c>
+      <c r="C85" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" ht="204" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A86">
+        <v>9527</v>
+      </c>
+      <c r="B86" t="s">
+        <v>3</v>
+      </c>
+      <c r="C86" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" ht="204" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A87">
+        <v>9527</v>
+      </c>
+      <c r="B87" t="s">
+        <v>3</v>
+      </c>
+      <c r="C87" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" ht="204" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A88">
+        <v>9527</v>
+      </c>
+      <c r="B88" t="s">
+        <v>3</v>
+      </c>
+      <c r="C88" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" ht="204" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A89">
+        <v>9527</v>
+      </c>
+      <c r="B89" t="s">
+        <v>3</v>
+      </c>
+      <c r="C89" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" ht="204" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A90">
+        <v>9527</v>
+      </c>
+      <c r="B90" t="s">
+        <v>3</v>
+      </c>
+      <c r="C90" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" ht="204" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A91">
+        <v>9527</v>
+      </c>
+      <c r="B91" t="s">
+        <v>3</v>
+      </c>
+      <c r="C91" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" ht="204" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A92">
+        <v>9527</v>
+      </c>
+      <c r="B92" t="s">
+        <v>3</v>
+      </c>
+      <c r="C92" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" ht="204" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A93">
+        <v>9527</v>
+      </c>
+      <c r="B93" t="s">
+        <v>3</v>
+      </c>
+      <c r="C93" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" ht="204" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A94">
+        <v>9527</v>
+      </c>
+      <c r="B94" t="s">
+        <v>3</v>
+      </c>
+      <c r="C94" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" ht="204" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A95">
+        <v>9527</v>
+      </c>
+      <c r="B95" t="s">
+        <v>3</v>
+      </c>
+      <c r="C95" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" ht="204" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A96">
+        <v>9527</v>
+      </c>
+      <c r="B96" t="s">
+        <v>3</v>
+      </c>
+      <c r="C96" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" ht="204" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A97">
+        <v>9527</v>
+      </c>
+      <c r="B97" t="s">
+        <v>3</v>
+      </c>
+      <c r="C97" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" ht="204" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A98">
+        <v>9527</v>
+      </c>
+      <c r="B98" t="s">
+        <v>3</v>
+      </c>
+      <c r="C98" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" ht="204" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A99">
+        <v>9527</v>
+      </c>
+      <c r="B99" t="s">
+        <v>3</v>
+      </c>
+      <c r="C99" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" ht="204" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A100">
+        <v>9527</v>
+      </c>
+      <c r="B100" t="s">
+        <v>3</v>
+      </c>
+      <c r="C100" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" ht="204" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A101">
+        <v>9527</v>
+      </c>
+      <c r="B101" t="s">
+        <v>3</v>
+      </c>
+      <c r="C101" t="s">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
